--- a/Symal/28160/res_1630-P200-SYM-QAC-ITP-0040.00.xlsx
+++ b/Symal/28160/res_1630-P200-SYM-QAC-ITP-0040.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\28160\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753CDBC8-16A4-427F-944F-DA7B78802018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6D5ACA-8CEF-4A53-A246-F9CE85C51812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9075" yWindow="2085" windowWidth="29010" windowHeight="18495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="1500" windowWidth="29010" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -85,18 +85,6 @@
     <t>Key - S</t>
   </si>
   <si>
-    <t xml:space="preserve">ITP No. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rev No. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Issue </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITP Type - </t>
-  </si>
-  <si>
     <t>1630-P200-SYM-QAC-ITP-0040 Asphalt Primer/Spray Seal</t>
   </si>
   <si>
@@ -578,6 +566,18 @@
   </si>
   <si>
     <t>VicRoads Key - S</t>
+  </si>
+  <si>
+    <t>ITP No. - 1630-P200-SYM-QAC-ITP-0040</t>
+  </si>
+  <si>
+    <t>Rev No. - 00</t>
+  </si>
+  <si>
+    <t>ITP Type - New</t>
+  </si>
+  <si>
+    <t>Date of Issue - 24/11/2023</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1519,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1531,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1581,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1595,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1609,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1623,7 +1623,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1637,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1651,7 +1651,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1665,7 +1665,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1679,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1707,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1721,7 +1721,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1735,7 +1735,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1749,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1763,7 +1763,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1777,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1791,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1805,7 +1805,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1819,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1833,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1847,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1861,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1875,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1889,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1917,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1945,7 +1945,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1969,7 +1969,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1977,7 +1977,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,7 +2001,7 @@
         <v>12</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2009,7 +2009,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2025,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>12</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2049,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>12</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2065,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,7 +2073,7 @@
         <v>12</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
         <v>12</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2097,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2105,20 +2105,20 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>13</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>14</v>
@@ -2145,7 +2145,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,23 +2153,23 @@
         <v>12</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,7 +2193,7 @@
         <v>12</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,7 +2209,7 @@
         <v>12</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,7 +2217,7 @@
         <v>12</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
         <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>12</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2241,7 +2241,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,7 +2265,7 @@
         <v>12</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2273,33 +2273,33 @@
         <v>12</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,15 +2315,15 @@
         <v>12</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2331,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2339,7 +2339,7 @@
         <v>12</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,7 +2347,7 @@
         <v>12</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>14</v>
@@ -2374,7 +2374,7 @@
         <v>12</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
         <v>11</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
         <v>12</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2398,7 +2398,7 @@
         <v>12</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2406,7 +2406,7 @@
         <v>12</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>14</v>
@@ -2441,7 +2441,7 @@
         <v>12</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2449,15 +2449,15 @@
         <v>12</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2465,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2481,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2489,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2497,7 +2497,7 @@
         <v>13</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>14</v>
@@ -2516,15 +2516,15 @@
         <v>12</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2532,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2540,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>12</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2564,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>12</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,7 +2580,7 @@
         <v>12</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,7 +2588,7 @@
         <v>12</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2604,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2620,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
         <v>12</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
         <v>13</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>14</v>
@@ -2655,15 +2655,15 @@
         <v>12</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>12</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
         <v>12</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2703,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>12</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>12</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>14</v>
@@ -2738,7 +2738,7 @@
         <v>12</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
         <v>12</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2762,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2778,7 +2778,7 @@
         <v>12</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
         <v>12</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>12</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,7 +2818,7 @@
         <v>12</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,7 +2826,7 @@
         <v>12</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2834,7 +2834,7 @@
         <v>13</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>14</v>
@@ -2853,7 +2853,7 @@
         <v>12</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2861,23 +2861,23 @@
         <v>12</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2885,7 +2885,7 @@
         <v>11</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2893,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,7 +2901,7 @@
         <v>13</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C147" s="8" t="s">
         <v>14</v>
@@ -2920,7 +2920,7 @@
         <v>9</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,7 +2928,7 @@
         <v>11</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2936,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2952,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>14</v>
@@ -2963,7 +2963,7 @@
         <v>12</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2971,7 +2971,7 @@
         <v>11</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>12</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2987,7 +2987,7 @@
         <v>12</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>13</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>14</v>
@@ -3006,7 +3006,7 @@
         <v>13</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>14</v>
@@ -3017,7 +3017,7 @@
         <v>12</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3025,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3033,7 +3033,7 @@
         <v>12</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>12</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
         <v>12</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>12</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,7 +3065,7 @@
         <v>13</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>14</v>
@@ -3084,15 +3084,15 @@
         <v>12</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>11</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>12</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>12</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3132,7 +3132,7 @@
         <v>12</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>12</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>14</v>
@@ -3183,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
         <v>12</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>12</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3223,7 +3223,7 @@
         <v>13</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>14</v>
@@ -3234,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3242,7 +3242,7 @@
         <v>11</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
         <v>12</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3258,7 +3258,7 @@
         <v>12</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>13</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>14</v>
@@ -3277,7 +3277,7 @@
         <v>12</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,7 +3285,7 @@
         <v>11</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3293,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3301,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3309,7 +3309,7 @@
         <v>13</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>14</v>
@@ -3320,7 +3320,7 @@
         <v>12</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3328,7 +3328,7 @@
         <v>11</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3336,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3344,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3352,7 +3352,7 @@
         <v>13</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>14</v>
@@ -3371,15 +3371,15 @@
         <v>12</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>11</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3403,7 +3403,7 @@
         <v>12</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3411,7 +3411,7 @@
         <v>12</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3419,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>13</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>14</v>
@@ -3446,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
